--- a/The Level Renderer/Project Rubric.xlsx
+++ b/The Level Renderer/Project Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qsync\Graphics I &amp; II Shared Staff Folder\Project &amp; Portfolio IV\Week_3_Handout\Assignments\The Level Renderer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Desktop\Project Portfolio 4\Project\LevelRenderer\The Level Renderer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2B1F7-3385-405B-9FB5-6081E9791C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6D860-29BF-473A-B2CA-A7CD2D26C907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="195" windowWidth="25335" windowHeight="16785" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="2595" yWindow="2640" windowWidth="21600" windowHeight="12525" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2126,7 @@
         <v>0.02</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>0.01</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>0.03</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C12" s="6">
         <f>SUM(C2:C11)</f>
-        <v>0</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2625,7 +2625,7 @@
         <v>0.02</v>
       </c>
       <c r="C47" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C49" s="13">
         <f>SUM(C46:C48)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C50" s="16">
         <f>MIN(SUM(C49,C44,C26,C12),100%)</f>
-        <v>0</v>
+        <v>0.51999999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/The Level Renderer/Project Rubric.xlsx
+++ b/The Level Renderer/Project Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Desktop\Project Portfolio 4\Project\LevelRenderer\The Level Renderer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6D860-29BF-473A-B2CA-A7CD2D26C907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D37D48-4DEF-43AB-B4E1-D3B18DEB5CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2640" windowWidth="21600" windowHeight="12525" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="3165" yWindow="2550" windowWidth="21600" windowHeight="12525" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2260,7 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="C26" s="6">
         <f>MIN(SUM(C14:C25),33%)</f>
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C50" s="16">
         <f>MIN(SUM(C49,C44,C26,C12),100%)</f>
-        <v>0.51999999999999991</v>
+        <v>0.62999999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/The Level Renderer/Project Rubric.xlsx
+++ b/The Level Renderer/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Desktop\Project Portfolio 4\Project\LevelRenderer\The Level Renderer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D37D48-4DEF-43AB-B4E1-D3B18DEB5CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE966C-7802-485F-A4A9-AD0D0B788455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="2550" windowWidth="21600" windowHeight="12525" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2304,7 @@
         <v>0.11</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="C26" s="6">
         <f>MIN(SUM(C14:C25),33%)</f>
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C50" s="16">
         <f>MIN(SUM(C49,C44,C26,C12),100%)</f>
-        <v>0.62999999999999989</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>

--- a/The Level Renderer/Project Rubric.xlsx
+++ b/The Level Renderer/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Desktop\Project Portfolio 4\Project\LevelRenderer\The Level Renderer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE966C-7802-485F-A4A9-AD0D0B788455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB46E18-51A3-4B0C-ABB1-5B5F2224DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="2550" windowWidth="21600" windowHeight="12525" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/The Level Renderer/Project Rubric.xlsx
+++ b/The Level Renderer/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Desktop\Project Portfolio 4\Project\LevelRenderer\The Level Renderer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB46E18-51A3-4B0C-ABB1-5B5F2224DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B88A300-7BF0-468E-BDCF-40616BEBE057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="2550" windowWidth="21600" windowHeight="12525" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
         <v>0.11</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="C26" s="6">
         <f>MIN(SUM(C14:C25),33%)</f>
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C50" s="16">
         <f>MIN(SUM(C49,C44,C26,C12),100%)</f>
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
